--- a/day7-angular/assignment-angular-day7.xlsx
+++ b/day7-angular/assignment-angular-day7.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\incarnus\2021\mean\day7-angular\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77DD82F-7651-40F7-A831-8DE196CA3839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FAFE89-F1EC-43E8-A0EF-5715E8853490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{120E5CDD-3DF4-4AA9-A353-F152D8D7BA4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{120E5CDD-3DF4-4AA9-A353-F152D8D7BA4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>eCommerce</t>
   </si>
@@ -113,6 +114,21 @@
   </si>
   <si>
     <t>Karnataka</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>marks</t>
+  </si>
+  <si>
+    <t>raghu</t>
+  </si>
+  <si>
+    <t>vidya</t>
+  </si>
+  <si>
+    <t>samhu</t>
   </si>
 </sst>
 </file>
@@ -519,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A182AF-C5C4-4F37-984C-CAE8B9684363}">
   <dimension ref="H5:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="H5" zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="H5" zoomScale="194" zoomScaleNormal="194" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,10 +653,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5E81BA-A3A4-43A3-B067-87D1267C42C1}">
+  <dimension ref="F1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G4">
+    <sortCondition descending="1" ref="G2:G4"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A19E8E9-8779-4DBF-9F48-421BD04338AB}">
   <dimension ref="G4:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
